--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F7ED2-1884-4C76-A224-ECA026CAA206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D59A9F-5370-46D4-B456-E76FA0376284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>what</t>
   </si>
@@ -37,9 +50,6 @@
     <t>why</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Psicología</t>
   </si>
   <si>
@@ -55,82 +65,142 @@
     <t>2017 - 2019</t>
   </si>
   <si>
-    <t>Desde 2015</t>
-  </si>
-  <si>
-    <t>Danny Ferley Gaitan Rodríguez (2019 - 2020)</t>
-  </si>
-  <si>
-    <t>Hasbleidy Gamboa Ordoñez (2019 - 2020)</t>
-  </si>
-  <si>
-    <t>Maria Paula Moreno Rodríguez (2019 - 2021)</t>
-  </si>
-  <si>
-    <t>Andrés Felipe Orozco Serrato (2020 - 2021)</t>
-  </si>
-  <si>
-    <t>Paula Andrea Betancourt Velandia  (2018 - 2019)</t>
-  </si>
-  <si>
-    <t>Ana Sofía Gómez Castelblanco (2018 - 2019)</t>
-  </si>
-  <si>
-    <t>Lina María García Hoyos  (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Angie Liliana Pérez Rodríguez  (2016 - 2018)</t>
-  </si>
-  <si>
-    <t>Lina María Morales Sánchez (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Laura Milena Estupiñan Aldana  (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Vanesa Díaz Güiza  (2016 - 2018)</t>
-  </si>
-  <si>
-    <t>Cindy Paola Moncada Gómez (2016 - 2017)</t>
-  </si>
-  <si>
-    <t>Haydn Ricardo Roldán Morales (2015 - 2016)</t>
-  </si>
-  <si>
-    <t>John Jairo Rubio (2021 - 2022)</t>
-  </si>
-  <si>
     <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}, Colombia</t>
   </si>
   <si>
-    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}, Colombia</t>
-  </si>
-  <si>
-    <t>Maria Alejandra Abello Mozo  (2018 - 2018)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Natalia Elízabeth Moreno Buitrago (2017 - 2019)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Juan Felipe Pérez Ariza (2017 - 2019)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Angie Alejandra Lozano Sanjuan (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Daniela Martínez Franco (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Mariana Saavedra Botero (2021 - 2022) - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Maria Daniela Martínez Luna (2020 - 2021)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Juan Sebastián Preciado Ruíz (2020 - 2021)  - \textbf{\textit{Trabajo de grado meritorio}}</t>
-  </si>
-  <si>
-    <t>Andrés Castellanos-Chacón (2017 -2018) - \textbf{\textit{Trabajo de grado meritorio}}. Supervisión docente (2019 - actualmente)</t>
+    <t xml:space="preserve">Maria Alejandra Abello Mozo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés Castellanos-Chacón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Jairo Rubio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina María García Hoyos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angie Liliana Pérez Rodríguez  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lina María Morales Sánchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Milena Estupiñan Aldana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanesa Díaz Güiza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Paola Moncada Gómez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haydn Ricardo Roldán Morales </t>
+  </si>
+  <si>
+    <t>2021 - 2022</t>
+  </si>
+  <si>
+    <t>2019 - 2021</t>
+  </si>
+  <si>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>2019 - 2020</t>
+  </si>
+  <si>
+    <t>2018 - 2019</t>
+  </si>
+  <si>
+    <t>2016 - 2017</t>
+  </si>
+  <si>
+    <t>2016 - 2018</t>
+  </si>
+  <si>
+    <t>2015 - 2016</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}</t>
+  </si>
+  <si>
+    <t>Supervisión docente (2019 - actualmente)</t>
+  </si>
+  <si>
+    <t>Desde 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia Elízabeth Moreno Buitrago y Juan Felipe Pérez Ariza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angie Alejandra Lozano Sanjuan, Daniela Martínez Franco y Mariana Saavedra Botero  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Daniela Martínez Luna y Juan Sebastián Preciado Ruíz </t>
+  </si>
+  <si>
+    <t>Maria Paula Moreno Rodríguez y Andrés Felipe Orozco Serrato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Ferley Gaitan Rodríguez y Hasbleidy Gamboa Ordoñez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula Andrea Betancourt Velandia y Ana Sofía Gómez Castelblanco  </t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{¿Se puede determinar si una persona ha sido infiel a partir de su voz?}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? A}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? C}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{La voz del sexo casual: ¿las características vocales predicen la disposición al sexo sin compromiso en hombres y mujeres? B}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{El sonido de la seducción: discriminación tonal, satisfacción en pareja, y niveles hormonales en hombres}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Efectos de los niveles hormonales en la discriminación tonal de mujeres}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Discriminación tonal predice satisfacción con pareja y su inversión parental, en hombres y mujeres}</t>
+  </si>
+  <si>
+    <t>Supevisión práctica profesional (investigación)</t>
+  </si>
+  <si>
+    <t>Proyecto: \textit{Señales perceptibles de salud física y mental en rostros, voces y olores corporales, y su relación con niveles hormonales}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{U. Pedagógica Nacional}, Colombia</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{Desarrollo y evaluación de una metodología nueva para manipular las variables del atractivo, dominancia y sexo simultáneamente en fotos de caras humanas con el programa PsychoMorph}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{Hombres que alcanzan voces menos agudas y con un volumen más bajo, tienden a tener más relaciones sexuales casuales}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/A9xNV3BqRJw}{¿Somos capaces de detectar qué tan sociosexual es una persona a partir de su voz y/o su rostro?}}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/G9eqxpyKF5A}{¿Existe relación entre la simetría facial y el atractivo de la voz?} }</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/BNNseX-PK7s}{¿Existe relación entre la sociosexualidad y la voz?}}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/qHn87CoBEm4}{¿Existe relación entre la forma del rostro y la socio-sexualidad?}}</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/J6nUuifYjbU}{Detección de infidelidad y sociosexualidad a partir de rostros: Análisis preliminar}}</t>
+  </si>
+  <si>
+    <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{http://hdl.handle.net/20.500.12209/10443}{Musicalidad y cohesión social: una aproximación experimental y bibliográfica desde el trabajo en equipo}}</t>
   </si>
 </sst>
 </file>
@@ -620,10 +690,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -980,223 +1059,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="133.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,36 +1395,28 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1284,34 +1467,6 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D59A9F-5370-46D4-B456-E76FA0376284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7FD7E-935F-45E2-B394-E28D93BC6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24450" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -1061,13 +1061,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
@@ -1254,38 +1254,38 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1293,16 +1293,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1310,16 +1310,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1327,16 +1327,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1361,16 +1361,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7FD7E-935F-45E2-B394-E28D93BC6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3275362-E774-4EBB-8247-4CA68FCAA945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24450" yWindow="0" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>what</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{http://hdl.handle.net/20.500.12209/10443}{Musicalidad y cohesión social: una aproximación experimental y bibliográfica desde el trabajo en equipo}}</t>
+  </si>
+  <si>
+    <t>2022 - 2023</t>
+  </si>
+  <si>
+    <t>Maria Camila Wilches y Johan Sebatián Castiblanco</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/FlZvukFqTcc}{El rol del género en la identificación de la sociosexualidad a partir de las voces}}</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,24 +1144,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1160,47 +1169,47 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1208,84 +1217,84 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1296,13 +1305,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1310,16 +1319,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1330,13 +1339,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1344,16 +1353,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1364,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1378,24 +1387,34 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1467,6 +1486,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3275362-E774-4EBB-8247-4CA68FCAA945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8926C6-987B-4601-8967-3F94C3765263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>what</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Trabajo de grado: \textit{\href{https://youtu.be/FlZvukFqTcc}{El rol del género en la identificación de la sociosexualidad a partir de las voces}}</t>
+  </si>
+  <si>
+    <t>Isabella Russo</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/nX3p5Bt_vjQ}{¿El género, preferenca sexual y nivel de sociosexualidad de una persona podrían influir en su capacidad para detectar la sociosexualidad de otros a través de rostros?}}</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,41 +1150,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>56</v>
+      <c r="B6" s="3">
+        <v>2023</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,47 +1192,47 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1234,84 +1240,84 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1322,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1336,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1356,13 +1362,13 @@
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1370,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1390,13 +1396,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1404,24 +1410,34 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1493,6 +1509,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8926C6-987B-4601-8967-3F94C3765263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81B4AC-E2B6-4792-ADCF-707D0A859E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>Trabajo de grado: \textit{Discriminación tonal predice satisfacción con pareja y su inversión parental, en hombres y mujeres}</t>
   </si>
   <si>
-    <t>Supevisión práctica profesional (investigación)</t>
-  </si>
-  <si>
     <t>Proyecto: \textit{Señales perceptibles de salud física y mental en rostros, voces y olores corporales, y su relación con niveles hormonales}</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Trabajo de grado: \textit{\href{https://youtu.be/nX3p5Bt_vjQ}{¿El género, preferenca sexual y nivel de sociosexualidad de una persona podrían influir en su capacidad para detectar la sociosexualidad de otros a través de rostros?}}</t>
+  </si>
+  <si>
+    <t>Supevisión práctica profesional en investigación (2017 - 2018)</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,13 +1158,13 @@
         <v>2023</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1172,16 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA81B4AC-E2B6-4792-ADCF-707D0A859E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771C339-A7D8-4BF6-9008-BA5C042D8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="3030" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t xml:space="preserve">Maria Alejandra Abello Mozo  </t>
   </si>
   <si>
-    <t xml:space="preserve">Andrés Castellanos-Chacón </t>
-  </si>
-  <si>
     <t xml:space="preserve">John Jairo Rubio </t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Supevisión práctica profesional en investigación (2017 - 2018)</t>
+  </si>
+  <si>
+    <t>\href{https://www.linkedin.com/in/andres-castellanos-chacon/}{Andrés Castellanos-Chacón}</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1158,13 +1158,13 @@
         <v>2023</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1172,16 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1189,16 +1189,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1206,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1240,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1257,16 +1257,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1277,13 +1277,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1291,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1328,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1345,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1359,16 +1359,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1376,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1393,16 +1393,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1410,16 +1410,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1427,16 +1427,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771C339-A7D8-4BF6-9008-BA5C042D8752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3D1F1-6FC0-4B91-A334-9F4D19DE7B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3030" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supervision" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>what</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>\href{https://www.linkedin.com/in/andres-castellanos-chacon/}{Andrés Castellanos-Chacón}</t>
+  </si>
+  <si>
+    <t>2023 - 2024</t>
+  </si>
+  <si>
+    <t>Trabajo de grado: \textit{\href{https://youtu.be/Pb-00b41j98?si=eCUPFx7sb5duEufx}{¿Es posible percibir la promiscuidad de una persona con tan solo escuchar su voz?}}</t>
+  </si>
+  <si>
+    <t>Scharik Yuliana Bello Lizarazo, Maria Camila Plazas López y Natalia Rodríguez Bautista</t>
   </si>
 </sst>
 </file>
@@ -778,9 +787,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -818,7 +827,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -924,7 +933,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1066,7 +1075,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,54 +1163,54 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>2023</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1209,47 +1218,47 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1257,84 +1266,84 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1345,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1359,16 +1368,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1379,13 +1388,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1393,16 +1402,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1413,13 +1422,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1427,24 +1436,34 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1516,6 +1535,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervision_pre_es.xlsx
+++ b/data/supervision_pre_es.xlsx
@@ -88,13 +88,13 @@
     <t xml:space="preserve">Scharik Yuliana Bello Lizarazo, Maria Camila Plazas López y Natalia Rodríguez Bautista</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/Pb-00b41j98?si=eCUPFx7sb5duEufx}{¿Es posible percibir la promiscuidad de una persona con tan solo escuchar su voz?}}</t>
+    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/taKzODEX4zg}{¿Es posible percibir la promiscuidad de una persona con tan solo escuchar su voz?}}</t>
   </si>
   <si>
     <t xml:space="preserve">Isabella Russo</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/nX3p5Bt_vjQ}{¿El género, preferenca sexual y nivel de sociosexualidad de una persona podrían influir en su capacidad para detectar la sociosexualidad de otros a través de rostros?}}</t>
+    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/RR7S5jRevsI}{¿El género, preferenca sexual y nivel de sociosexualidad de una persona podrían influir en su capacidad para detectar la sociosexualidad de otros a través de rostros?}}</t>
   </si>
   <si>
     <t xml:space="preserve">2022 - 2023</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Maria Camila Wilches y Johan Sebatián Castiblanco</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/FlZvukFqTcc}{El rol del género en la identificación de la sociosexualidad a partir de las voces}}</t>
+    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/NbPyhQAFlUk}{El rol del género en la identificación de la sociosexualidad a partir de las voces}}</t>
   </si>
   <si>
     <t xml:space="preserve">2021 - 2022</t>
@@ -112,13 +112,13 @@
     <t xml:space="preserve">Angie Alejandra Lozano Sanjuan, Daniela Martínez Franco y Mariana Saavedra Botero  </t>
   </si>
   <si>
-    <t xml:space="preserve">\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/A9xNV3BqRJw}{¿Somos capaces de detectar qué tan sociosexual es una persona a partir de su voz y/o su rostro?}}</t>
+    <t xml:space="preserve">\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/xhYq7HeEPP4}{¿Somos capaces de detectar qué tan sociosexual es una persona a partir de su voz y/o su rostro?}}</t>
   </si>
   <si>
     <t xml:space="preserve">John Jairo Rubio </t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/G9eqxpyKF5A}{¿Existe relación entre la simetría facial y el atractivo de la voz?} }</t>
+    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/5o9Iea8VfDM}{¿Existe relación entre la simetría facial y el atractivo de la voz?} }</t>
   </si>
   <si>
     <t xml:space="preserve">2020 - 2021</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Maria Daniela Martínez Luna y Juan Sebastián Preciado Ruíz </t>
   </si>
   <si>
-    <t xml:space="preserve">\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/BNNseX-PK7s}{¿Existe relación entre la sociosexualidad y la voz?}}</t>
+    <t xml:space="preserve">\textbf{\textit{Trabajo de grado meritorio}}: \textit{\href{https://youtu.be/Ie07343LiIA}{¿Existe relación entre la sociosexualidad y la voz?}}</t>
   </si>
   <si>
     <t xml:space="preserve">2019 - 2021</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Danny Ferley Gaitan Rodríguez y Hasbleidy Gamboa Ordoñez </t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/J6nUuifYjbU}{Detección de infidelidad y sociosexualidad a partir de rostros: Análisis preliminar}}</t>
+    <t xml:space="preserve">Trabajo de grado: \textit{\href{https://youtu.be/rkp2k_KzZsM}{Detección de infidelidad y sociosexualidad a partir de rostros: Análisis preliminar}}</t>
   </si>
   <si>
     <t xml:space="preserve">Pedagogía Musical</t>
@@ -308,24 +308,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,518 +524,525 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="58.57421875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="73.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="72.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="73.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="22" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="23" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://hdl.handle.net/20.500.12495/18118"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://hdl.handle.net/20.500.12495/18119"/>
+    <hyperlink ref="E2" r:id="rId1" display="Trabajo de grado:  \textit{\href{https://hdl.handle.net/20.500.12495/18118}{¿Cómo influyen los rasgos faciales y las descripciones personales en la percepción de la sociosexualidad y la elección de pareja?}}"/>
+    <hyperlink ref="E3" r:id="rId2" display="Trabajo de grado: \textit{\href{https://hdl.handle.net/20.500.12495/18119}{Sociosexualidad percibida a partir del contenido verbal de los discursos}}"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://youtu.be/taKzODEX4zg"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://youtu.be/RR7S5jRevsI"/>
+    <hyperlink ref="E11" r:id="rId5" display="https://youtu.be/NbPyhQAFlUk"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://youtu.be/xhYq7HeEPP4"/>
+    <hyperlink ref="E13" r:id="rId7" display="https://youtu.be/5o9Iea8VfDM"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://youtu.be/Ie07343LiIA"/>
+    <hyperlink ref="E16" r:id="rId9" display="https://youtu.be/rkp2k_KzZsM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
